--- a/002 HandwrittenDataExtraction/HandwrittenExtraction/Data/Output/HandwrittenData.xlsx
+++ b/002 HandwrittenDataExtraction/HandwrittenExtraction/Data/Output/HandwrittenData.xlsx
@@ -31,7 +31,7 @@
     <x:t>Signature</x:t>
   </x:si>
   <x:si>
-    <x:t>ALEX JONES</x:t>
+    <x:t>ALE JONES</x:t>
   </x:si>
   <x:si>
     <x:t>05/27/1983</x:t>
@@ -43,7 +43,7 @@
     <x:t>Yes</x:t>
   </x:si>
   <x:si>
-    <x:t>JAMES SMITH</x:t>
+    <x:t>JAMS SMHH</x:t>
   </x:si>
   <x:si>
     <x:t>07/15/1988</x:t>
